--- a/data/case1/18/P_device_13.xlsx
+++ b/data/case1/18/P_device_13.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.027818191275145173</v>
+        <v>-0.036061935545037706</v>
       </c>
       <c r="B1" s="0">
-        <v>0.027818189380128911</v>
+        <v>0.036061934731249558</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.026772265090052327</v>
+        <v>0.048853777235474516</v>
       </c>
       <c r="B2" s="0">
-        <v>0.026772263090742172</v>
+        <v>-0.048853778088672917</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.024166869392299319</v>
+        <v>-0.0018645753298280813</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.024166871282302254</v>
+        <v>0.0018645745058398317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0055716918869850437</v>
+        <v>0.0013350510328165189</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0055716938539389594</v>
+        <v>-0.0013350519304597837</v>
       </c>
     </row>
     <row r="5">
